--- a/Atalhos/3.xlsx
+++ b/Atalhos/3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10-2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1331,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,237 +1345,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3">
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="3">
-        <v>6</v>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="3">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
